--- a/lib/PHPExcel/templates/Report Str.xlsx
+++ b/lib/PHPExcel/templates/Report Str.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -23,11 +23,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">PV!$A$1:$D$52</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
   <si>
     <t>No. DE TRAVAIL :</t>
   </si>
@@ -352,6 +353,9 @@
   <si>
     <t>Eprouvettes usinées par Metcut Research Inc, sous référence : xxxxxxxxxx</t>
   </si>
+  <si>
+    <t>Str</t>
+  </si>
 </sst>
 </file>
 
@@ -363,7 +367,7 @@
     <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -462,6 +466,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -601,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -820,6 +831,7 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -903,73 +915,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="CommandButton1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2339,17 +2284,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil3"/>
-  <dimension ref="F1:Q1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="6:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="82" t="s">
+        <v>95</v>
+      </c>
       <c r="F1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2376,39 +2322,33 @@
     <oddHeader xml:space="preserve">&amp;R&amp;"Times New Roman,Normal"&amp;9Page &amp;P/&amp;N&amp;"MS Sans Serif,Normal"&amp;10
 </oddHeader>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="CommandButton1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="CommandButton1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Check xmlns="67604082-326d-4240-aaee-100283b20839">Rapport Validé</Check>
+    <vctj xmlns="67604082-326d-4240-aaee-100283b20839">8043</vctj>
+    <pv7j xmlns="67604082-326d-4240-aaee-100283b20839">13232</pv7j>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006A18800F7AB66843AE086E8500CCEA21" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d60d5c9f17a480d7e4b53ebba2c4603">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67604082-326d-4240-aaee-100283b20839" xmlns:ns3="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b97804bffc58ba73e5228c2548755f2" ns2:_="" ns3:_="">
     <xsd:import namespace="67604082-326d-4240-aaee-100283b20839"/>
@@ -2584,30 +2524,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Check xmlns="67604082-326d-4240-aaee-100283b20839">Rapport Validé</Check>
-    <vctj xmlns="67604082-326d-4240-aaee-100283b20839">8043</vctj>
-    <pv7j xmlns="67604082-326d-4240-aaee-100283b20839">13232</pv7j>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F1329F-71F7-4F0E-A822-5837ADF5B51C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C53B3C-BBC9-48C3-9DA4-3687FEE00EE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07ED7936-D779-47E7-BF6C-7C086F04E976}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="67604082-326d-4240-aaee-100283b20839"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{386C40D6-9904-47D7-9FC5-798E8189EC7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2624,37 +2574,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07ED7936-D779-47E7-BF6C-7C086F04E976}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="67604082-326d-4240-aaee-100283b20839"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C53B3C-BBC9-48C3-9DA4-3687FEE00EE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F1329F-71F7-4F0E-A822-5837ADF5B51C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/lib/PHPExcel/templates/Report Str.xlsx
+++ b/lib/PHPExcel/templates/Report Str.xlsx
@@ -612,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -828,10 +828,19 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1241,7 +1250,9 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1318,20 +1329,20 @@
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1344,20 +1355,20 @@
       <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
       <c r="H9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1677,23 +1688,25 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader xml:space="preserve">&amp;R&amp;"-,Normal"&amp;9Page &amp;P/&amp;N&amp;10
+    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;R&amp;"-,Normal"&amp;9Page &amp;P/&amp;N&amp;10
 </oddHeader>
+    <oddFooter>&amp;C&amp;G</oddFooter>
   </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A4:CY74"/>
+  <dimension ref="A1:CY74"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A7" sqref="A7"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1706,6 +1719,10 @@
     <col min="88" max="16384" width="11.42578125" style="32"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" s="83" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="84"/>
+      <c r="D1" s="85"/>
+    </row>
     <row r="4" spans="1:4" s="34" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="35"/>
     </row>
@@ -2273,13 +2290,14 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.78740157480314998" bottom="0.59055118110236204" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader xml:space="preserve">&amp;R&amp;"Times New Roman,Normal"&amp;9Page &amp;P/&amp;N
+    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;R&amp;"Times New Roman,Normal"&amp;9Page &amp;P/&amp;N
 </oddHeader>
-    <oddFooter xml:space="preserve">&amp;R                              </oddFooter>
+    <oddFooter xml:space="preserve">&amp;C&amp;G&amp;R                              </oddFooter>
   </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2288,12 +2306,12 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="81" t="s">
         <v>95</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -2315,40 +2333,19 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.59055118110236204" right="0.59055118110236204" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader xml:space="preserve">&amp;R&amp;"Times New Roman,Normal"&amp;9Page &amp;P/&amp;N&amp;"MS Sans Serif,Normal"&amp;10
 </oddHeader>
+    <oddFooter>&amp;C&amp;G</oddFooter>
   </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Check xmlns="67604082-326d-4240-aaee-100283b20839">Rapport Validé</Check>
-    <vctj xmlns="67604082-326d-4240-aaee-100283b20839">8043</vctj>
-    <pv7j xmlns="67604082-326d-4240-aaee-100283b20839">13232</pv7j>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006A18800F7AB66843AE086E8500CCEA21" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d60d5c9f17a480d7e4b53ebba2c4603">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67604082-326d-4240-aaee-100283b20839" xmlns:ns3="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b97804bffc58ba73e5228c2548755f2" ns2:_="" ns3:_="">
     <xsd:import namespace="67604082-326d-4240-aaee-100283b20839"/>
@@ -2524,40 +2521,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F1329F-71F7-4F0E-A822-5837ADF5B51C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C53B3C-BBC9-48C3-9DA4-3687FEE00EE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07ED7936-D779-47E7-BF6C-7C086F04E976}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="67604082-326d-4240-aaee-100283b20839"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Check xmlns="67604082-326d-4240-aaee-100283b20839">Rapport Validé</Check>
+    <vctj xmlns="67604082-326d-4240-aaee-100283b20839">8043</vctj>
+    <pv7j xmlns="67604082-326d-4240-aaee-100283b20839">13232</pv7j>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{386C40D6-9904-47D7-9FC5-798E8189EC7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2574,4 +2561,37 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F1329F-71F7-4F0E-A822-5837ADF5B51C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C53B3C-BBC9-48C3-9DA4-3687FEE00EE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07ED7936-D779-47E7-BF6C-7C086F04E976}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="67604082-326d-4240-aaee-100283b20839"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/lib/PHPExcel/templates/Report Str.xlsx
+++ b/lib/PHPExcel/templates/Report Str.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="103">
   <si>
     <t>No. DE TRAVAIL :</t>
   </si>
@@ -355,6 +355,27 @@
   </si>
   <si>
     <t>Str</t>
+  </si>
+  <si>
+    <t>Avant la spécif</t>
+  </si>
+  <si>
+    <t>Après spécif</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> et Instructions client.</t>
+  </si>
+  <si>
+    <t>Essais de fatigue vibratoire sur xxxxx éprouvettes, matériau fourni par xxxxxxx.</t>
+  </si>
+  <si>
+    <t>Joachim GALIPAUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASTM E606-12, </t>
+  </si>
+  <si>
+    <t>Voir cellule $K et $L</t>
   </si>
 </sst>
 </file>
@@ -475,7 +496,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,6 +506,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -829,17 +856,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1248,10 +1279,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1266,7 +1297,9 @@
     <col min="8" max="8" width="21" style="3" customWidth="1"/>
     <col min="9" max="9" width="1.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="3"/>
+    <col min="11" max="11" width="13.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
@@ -1329,20 +1362,20 @@
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
       <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1355,20 +1388,20 @@
       <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
       <c r="H9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1390,7 +1423,9 @@
       <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="29" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="29" t="s">
@@ -1413,29 +1448,45 @@
       </c>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E17" s="24"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="85" t="s">
+        <v>101</v>
+      </c>
+      <c r="L19" s="85" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E20" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E21" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
@@ -1446,15 +1497,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E24" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -1466,17 +1517,17 @@
       </c>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E27" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>2</v>
       </c>
@@ -1493,7 +1544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>38</v>
       </c>
@@ -1504,12 +1555,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E31" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
         <v>67</v>
       </c>
@@ -1641,7 +1692,9 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="30"/>
+      <c r="A51" s="86" t="s">
+        <v>100</v>
+      </c>
       <c r="H51" s="29"/>
       <c r="I51" s="30"/>
       <c r="J51" s="29"/>
@@ -1719,9 +1772,9 @@
     <col min="88" max="16384" width="11.42578125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="83" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="84"/>
-      <c r="D1" s="85"/>
+    <row r="1" spans="1:4" s="82" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="83"/>
+      <c r="D1" s="84"/>
     </row>
     <row r="4" spans="1:4" s="34" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="35"/>
@@ -2337,7 +2390,7 @@
   <pageMargins left="0.59055118110236204" right="0.59055118110236204" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader xml:space="preserve">&amp;R&amp;"Times New Roman,Normal"&amp;9Page &amp;P/&amp;N&amp;"MS Sans Serif,Normal"&amp;10
+    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;R&amp;"Times New Roman,Normal"&amp;9Page &amp;P/&amp;N&amp;"MS Sans Serif,Normal"&amp;10
 </oddHeader>
     <oddFooter>&amp;C&amp;G</oddFooter>
   </headerFooter>
@@ -2346,6 +2399,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Check xmlns="67604082-326d-4240-aaee-100283b20839">Rapport Validé</Check>
+    <vctj xmlns="67604082-326d-4240-aaee-100283b20839">8043</vctj>
+    <pv7j xmlns="67604082-326d-4240-aaee-100283b20839">13232</pv7j>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006A18800F7AB66843AE086E8500CCEA21" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d60d5c9f17a480d7e4b53ebba2c4603">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67604082-326d-4240-aaee-100283b20839" xmlns:ns3="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b97804bffc58ba73e5228c2548755f2" ns2:_="" ns3:_="">
     <xsd:import namespace="67604082-326d-4240-aaee-100283b20839"/>
@@ -2521,7 +2584,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2530,21 +2593,28 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Check xmlns="67604082-326d-4240-aaee-100283b20839">Rapport Validé</Check>
-    <vctj xmlns="67604082-326d-4240-aaee-100283b20839">8043</vctj>
-    <pv7j xmlns="67604082-326d-4240-aaee-100283b20839">13232</pv7j>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07ED7936-D779-47E7-BF6C-7C086F04E976}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="67604082-326d-4240-aaee-100283b20839"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{386C40D6-9904-47D7-9FC5-798E8189EC7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2563,7 +2633,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F1329F-71F7-4F0E-A822-5837ADF5B51C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2571,27 +2641,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C53B3C-BBC9-48C3-9DA4-3687FEE00EE8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07ED7936-D779-47E7-BF6C-7C086F04E976}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="67604082-326d-4240-aaee-100283b20839"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/lib/PHPExcel/templates/Report Str.xlsx
+++ b/lib/PHPExcel/templates/Report Str.xlsx
@@ -366,9 +366,6 @@
     <t xml:space="preserve"> et Instructions client.</t>
   </si>
   <si>
-    <t>Essais de fatigue vibratoire sur xxxxx éprouvettes, matériau fourni par xxxxxxx.</t>
-  </si>
-  <si>
     <t>Joachim GALIPAUD</t>
   </si>
   <si>
@@ -376,6 +373,9 @@
   </si>
   <si>
     <t>Voir cellule $K et $L</t>
+  </si>
+  <si>
+    <t>Essais de fatigue sur xxxxx éprouvettes, matériau fourni par xxxxxxx.</t>
   </si>
 </sst>
 </file>
@@ -798,9 +798,6 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -828,14 +825,8 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="167" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -868,6 +859,15 @@
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1281,9 +1281,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1424,7 +1422,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1467,12 +1465,12 @@
         <v>4</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K19" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="L19" s="85" t="s">
+      <c r="K19" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="82" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1692,8 +1690,8 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="86" t="s">
-        <v>100</v>
+      <c r="A51" s="83" t="s">
+        <v>99</v>
       </c>
       <c r="H51" s="29"/>
       <c r="I51" s="30"/>
@@ -1759,7 +1757,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1772,9 +1770,9 @@
     <col min="88" max="16384" width="11.42578125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="82" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="83"/>
-      <c r="D1" s="84"/>
+    <row r="1" spans="1:4" s="79" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="80"/>
+      <c r="D1" s="81"/>
     </row>
     <row r="4" spans="1:4" s="34" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="35"/>
@@ -1864,18 +1862,18 @@
       <c r="D14" s="55"/>
     </row>
     <row r="15" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="75"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
-      <c r="D15" s="69"/>
+      <c r="D15" s="68"/>
     </row>
     <row r="16" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="76" t="s">
+      <c r="A16" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="70"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="69"/>
     </row>
     <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
@@ -1915,7 +1913,7 @@
       <c r="C20" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="58"/>
+      <c r="D20" s="59"/>
     </row>
     <row r="21" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
@@ -1953,30 +1951,30 @@
       <c r="C24" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="65"/>
+      <c r="D24" s="64"/>
     </row>
     <row r="25" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="74" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="71"/>
+      <c r="D25" s="70"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="68" t="s">
+      <c r="B26" s="66"/>
+      <c r="C26" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="72"/>
+      <c r="D26" s="86"/>
     </row>
     <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="76" t="s">
         <v>69</v>
       </c>
       <c r="B27" s="44" t="s">
@@ -1988,7 +1986,7 @@
       <c r="D27" s="58"/>
     </row>
     <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="79" t="s">
+      <c r="A28" s="76" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="44" t="s">
@@ -2000,7 +1998,7 @@
       <c r="D28" s="58"/>
     </row>
     <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="79" t="s">
+      <c r="A29" s="76" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="44" t="s">
@@ -2012,7 +2010,7 @@
       <c r="D29" s="59"/>
     </row>
     <row r="30" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="80" t="s">
+      <c r="A30" s="77" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="45" t="s">
@@ -2021,18 +2019,18 @@
       <c r="C30" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="73"/>
+      <c r="D30" s="71"/>
     </row>
     <row r="31" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="76" t="s">
+      <c r="A31" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="67"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="70"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="69"/>
     </row>
     <row r="32" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="76" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="46" t="s">
@@ -2044,7 +2042,7 @@
       <c r="D32" s="59"/>
     </row>
     <row r="33" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="79" t="s">
+      <c r="A33" s="76" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="44" t="s">
@@ -2056,7 +2054,7 @@
       <c r="D33" s="59"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="79" t="s">
+      <c r="A34" s="76" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="44" t="s">
@@ -2077,10 +2075,10 @@
       <c r="C35" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="58"/>
+      <c r="D35" s="59"/>
     </row>
     <row r="36" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="79" t="s">
+      <c r="A36" s="76" t="s">
         <v>26</v>
       </c>
       <c r="B36" s="44" t="s">
@@ -2092,7 +2090,7 @@
       <c r="D36" s="60"/>
     </row>
     <row r="37" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="79" t="s">
+      <c r="A37" s="76" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="44" t="s">
@@ -2104,7 +2102,7 @@
       <c r="D37" s="61"/>
     </row>
     <row r="38" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="79" t="s">
+      <c r="A38" s="76" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="44" t="s">
@@ -2116,7 +2114,7 @@
       <c r="D38" s="61"/>
     </row>
     <row r="39" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="79" t="s">
+      <c r="A39" s="76" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="44" t="s">
@@ -2128,7 +2126,7 @@
       <c r="D39" s="61"/>
     </row>
     <row r="40" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="80" t="s">
+      <c r="A40" s="77" t="s">
         <v>29</v>
       </c>
       <c r="B40" s="45" t="s">
@@ -2137,15 +2135,15 @@
       <c r="C40" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="74"/>
+      <c r="D40" s="84"/>
     </row>
     <row r="41" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="76" t="s">
+      <c r="A41" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="67"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="38"/>
-      <c r="D41" s="70"/>
+      <c r="D41" s="69"/>
     </row>
     <row r="42" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="36" t="s">
@@ -2197,123 +2195,123 @@
       <c r="C47" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="62"/>
+      <c r="D47" s="85"/>
     </row>
     <row r="48" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="48"/>
       <c r="B48" s="49"/>
       <c r="C48" s="50"/>
-      <c r="D48" s="66"/>
+      <c r="D48" s="65"/>
     </row>
     <row r="49" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="51"/>
       <c r="D49" s="52"/>
     </row>
     <row r="50" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="63" t="s">
+      <c r="A50" s="62" t="s">
         <v>82</v>
       </c>
       <c r="C50" s="51"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="64"/>
-      <c r="I50" s="64"/>
-      <c r="J50" s="64"/>
-      <c r="K50" s="64"/>
-      <c r="L50" s="64"/>
-      <c r="M50" s="64"/>
-      <c r="N50" s="64"/>
-      <c r="O50" s="64"/>
-      <c r="P50" s="64"/>
-      <c r="Q50" s="64"/>
-      <c r="R50" s="64"/>
-      <c r="S50" s="64"/>
-      <c r="T50" s="64"/>
-      <c r="U50" s="64"/>
-      <c r="V50" s="64"/>
-      <c r="W50" s="64"/>
-      <c r="X50" s="64"/>
-      <c r="Y50" s="64"/>
-      <c r="Z50" s="64"/>
-      <c r="AA50" s="64"/>
-      <c r="AB50" s="64"/>
-      <c r="AC50" s="64"/>
-      <c r="AD50" s="64"/>
-      <c r="AE50" s="64"/>
-      <c r="AF50" s="64"/>
-      <c r="AG50" s="64"/>
-      <c r="AH50" s="64"/>
-      <c r="AI50" s="64"/>
-      <c r="AJ50" s="64"/>
-      <c r="AK50" s="64"/>
-      <c r="AL50" s="64"/>
-      <c r="AM50" s="64"/>
-      <c r="AN50" s="64"/>
-      <c r="AO50" s="64"/>
-      <c r="AP50" s="64"/>
-      <c r="AQ50" s="64"/>
-      <c r="AR50" s="64"/>
-      <c r="AS50" s="64"/>
-      <c r="AT50" s="64"/>
-      <c r="AU50" s="64"/>
-      <c r="AV50" s="64"/>
-      <c r="AW50" s="64"/>
-      <c r="AX50" s="64"/>
-      <c r="AY50" s="64"/>
-      <c r="AZ50" s="64"/>
-      <c r="BA50" s="64"/>
-      <c r="BB50" s="64"/>
-      <c r="BC50" s="64"/>
-      <c r="BD50" s="64"/>
-      <c r="BE50" s="64"/>
-      <c r="BF50" s="64"/>
-      <c r="BG50" s="64"/>
-      <c r="BH50" s="64"/>
-      <c r="BI50" s="64"/>
-      <c r="BJ50" s="64"/>
-      <c r="BK50" s="64"/>
-      <c r="BL50" s="64"/>
-      <c r="BM50" s="64"/>
-      <c r="BN50" s="64"/>
-      <c r="BO50" s="64"/>
-      <c r="BP50" s="64"/>
-      <c r="BQ50" s="64"/>
-      <c r="BR50" s="64"/>
-      <c r="BS50" s="64"/>
-      <c r="BT50" s="64"/>
-      <c r="BU50" s="64"/>
-      <c r="BV50" s="64"/>
-      <c r="BW50" s="64"/>
-      <c r="BX50" s="64"/>
-      <c r="BY50" s="64"/>
-      <c r="BZ50" s="64"/>
-      <c r="CA50" s="64"/>
-      <c r="CB50" s="64"/>
-      <c r="CC50" s="64"/>
-      <c r="CD50" s="64"/>
-      <c r="CE50" s="64"/>
-      <c r="CF50" s="64"/>
-      <c r="CG50" s="64"/>
-      <c r="CH50" s="64"/>
-      <c r="CI50" s="64"/>
-      <c r="CJ50" s="64"/>
-      <c r="CK50" s="64"/>
-      <c r="CL50" s="64"/>
-      <c r="CM50" s="64"/>
-      <c r="CN50" s="64"/>
-      <c r="CO50" s="64"/>
-      <c r="CP50" s="64"/>
-      <c r="CQ50" s="64"/>
-      <c r="CR50" s="64"/>
-      <c r="CS50" s="64"/>
-      <c r="CT50" s="64"/>
-      <c r="CU50" s="64"/>
-      <c r="CV50" s="64"/>
-      <c r="CW50" s="64"/>
-      <c r="CX50" s="64"/>
-      <c r="CY50" s="64"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="63"/>
+      <c r="O50" s="63"/>
+      <c r="P50" s="63"/>
+      <c r="Q50" s="63"/>
+      <c r="R50" s="63"/>
+      <c r="S50" s="63"/>
+      <c r="T50" s="63"/>
+      <c r="U50" s="63"/>
+      <c r="V50" s="63"/>
+      <c r="W50" s="63"/>
+      <c r="X50" s="63"/>
+      <c r="Y50" s="63"/>
+      <c r="Z50" s="63"/>
+      <c r="AA50" s="63"/>
+      <c r="AB50" s="63"/>
+      <c r="AC50" s="63"/>
+      <c r="AD50" s="63"/>
+      <c r="AE50" s="63"/>
+      <c r="AF50" s="63"/>
+      <c r="AG50" s="63"/>
+      <c r="AH50" s="63"/>
+      <c r="AI50" s="63"/>
+      <c r="AJ50" s="63"/>
+      <c r="AK50" s="63"/>
+      <c r="AL50" s="63"/>
+      <c r="AM50" s="63"/>
+      <c r="AN50" s="63"/>
+      <c r="AO50" s="63"/>
+      <c r="AP50" s="63"/>
+      <c r="AQ50" s="63"/>
+      <c r="AR50" s="63"/>
+      <c r="AS50" s="63"/>
+      <c r="AT50" s="63"/>
+      <c r="AU50" s="63"/>
+      <c r="AV50" s="63"/>
+      <c r="AW50" s="63"/>
+      <c r="AX50" s="63"/>
+      <c r="AY50" s="63"/>
+      <c r="AZ50" s="63"/>
+      <c r="BA50" s="63"/>
+      <c r="BB50" s="63"/>
+      <c r="BC50" s="63"/>
+      <c r="BD50" s="63"/>
+      <c r="BE50" s="63"/>
+      <c r="BF50" s="63"/>
+      <c r="BG50" s="63"/>
+      <c r="BH50" s="63"/>
+      <c r="BI50" s="63"/>
+      <c r="BJ50" s="63"/>
+      <c r="BK50" s="63"/>
+      <c r="BL50" s="63"/>
+      <c r="BM50" s="63"/>
+      <c r="BN50" s="63"/>
+      <c r="BO50" s="63"/>
+      <c r="BP50" s="63"/>
+      <c r="BQ50" s="63"/>
+      <c r="BR50" s="63"/>
+      <c r="BS50" s="63"/>
+      <c r="BT50" s="63"/>
+      <c r="BU50" s="63"/>
+      <c r="BV50" s="63"/>
+      <c r="BW50" s="63"/>
+      <c r="BX50" s="63"/>
+      <c r="BY50" s="63"/>
+      <c r="BZ50" s="63"/>
+      <c r="CA50" s="63"/>
+      <c r="CB50" s="63"/>
+      <c r="CC50" s="63"/>
+      <c r="CD50" s="63"/>
+      <c r="CE50" s="63"/>
+      <c r="CF50" s="63"/>
+      <c r="CG50" s="63"/>
+      <c r="CH50" s="63"/>
+      <c r="CI50" s="63"/>
+      <c r="CJ50" s="63"/>
+      <c r="CK50" s="63"/>
+      <c r="CL50" s="63"/>
+      <c r="CM50" s="63"/>
+      <c r="CN50" s="63"/>
+      <c r="CO50" s="63"/>
+      <c r="CP50" s="63"/>
+      <c r="CQ50" s="63"/>
+      <c r="CR50" s="63"/>
+      <c r="CS50" s="63"/>
+      <c r="CT50" s="63"/>
+      <c r="CU50" s="63"/>
+      <c r="CV50" s="63"/>
+      <c r="CW50" s="63"/>
+      <c r="CX50" s="63"/>
+      <c r="CY50" s="63"/>
     </row>
     <row r="51" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="51"/>
@@ -2359,12 +2357,13 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="78"/>
+      <c r="D1" s="78" t="s">
         <v>95</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -2600,13 +2599,13 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07ED7936-D779-47E7-BF6C-7C086F04E976}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="67604082-326d-4240-aaee-100283b20839"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>

--- a/lib/PHPExcel/templates/Report Str.xlsx
+++ b/lib/PHPExcel/templates/Report Str.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="9855" windowHeight="4650" tabRatio="576"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="9855" windowHeight="4650" tabRatio="576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="En-tête" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="104">
   <si>
     <t>No. DE TRAVAIL :</t>
   </si>
@@ -377,16 +377,20 @@
   <si>
     <t>Essais de fatigue sur xxxxx éprouvettes, matériau fourni par xxxxxxx.</t>
   </si>
+  <si>
+    <t>Requête client</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.00_)"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="#0.0#"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -516,7 +520,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -635,11 +639,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -816,9 +850,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -871,6 +902,18 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1281,7 +1324,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1360,20 +1403,20 @@
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
       <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1386,20 +1429,20 @@
       <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
       <c r="H9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1467,10 +1510,10 @@
       <c r="E19" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="82" t="s">
+      <c r="K19" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="L19" s="82" t="s">
+      <c r="L19" s="81" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1690,7 +1733,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="83" t="s">
+      <c r="A51" s="82" t="s">
         <v>99</v>
       </c>
       <c r="H51" s="29"/>
@@ -1755,9 +1798,9 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:CY74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1770,9 +1813,9 @@
     <col min="88" max="16384" width="11.42578125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="79" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="80"/>
-      <c r="D1" s="81"/>
+    <row r="1" spans="1:4" s="78" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="79"/>
+      <c r="D1" s="80"/>
     </row>
     <row r="4" spans="1:4" s="34" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="35"/>
@@ -1857,23 +1900,27 @@
     </row>
     <row r="14" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
+      <c r="B14" s="87" t="s">
+        <v>103</v>
+      </c>
       <c r="C14" s="40"/>
-      <c r="D14" s="55"/>
+      <c r="D14" s="89"/>
     </row>
     <row r="15" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="42"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="88" t="s">
+        <v>103</v>
+      </c>
       <c r="C15" s="43"/>
-      <c r="D15" s="68"/>
+      <c r="D15" s="90"/>
     </row>
     <row r="16" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="72" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
-      <c r="D16" s="69"/>
+      <c r="D16" s="68"/>
     </row>
     <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
@@ -1954,27 +2001,27 @@
       <c r="D24" s="64"/>
     </row>
     <row r="25" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="73" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="70"/>
+      <c r="D25" s="69"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="74" t="s">
         <v>83</v>
       </c>
       <c r="B26" s="66"/>
       <c r="C26" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="86"/>
+      <c r="D26" s="85"/>
     </row>
     <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="75" t="s">
         <v>69</v>
       </c>
       <c r="B27" s="44" t="s">
@@ -1986,7 +2033,7 @@
       <c r="D27" s="58"/>
     </row>
     <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="75" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="44" t="s">
@@ -1998,7 +2045,7 @@
       <c r="D28" s="58"/>
     </row>
     <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="75" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="44" t="s">
@@ -2010,7 +2057,7 @@
       <c r="D29" s="59"/>
     </row>
     <row r="30" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="76" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="45" t="s">
@@ -2019,18 +2066,18 @@
       <c r="C30" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="71"/>
+      <c r="D30" s="70"/>
     </row>
     <row r="31" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="72" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="66"/>
       <c r="C31" s="67"/>
-      <c r="D31" s="69"/>
+      <c r="D31" s="68"/>
     </row>
     <row r="32" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="75" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="46" t="s">
@@ -2042,7 +2089,7 @@
       <c r="D32" s="59"/>
     </row>
     <row r="33" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="75" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="44" t="s">
@@ -2054,7 +2101,7 @@
       <c r="D33" s="59"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="76" t="s">
+      <c r="A34" s="75" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="44" t="s">
@@ -2078,7 +2125,7 @@
       <c r="D35" s="59"/>
     </row>
     <row r="36" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="76" t="s">
+      <c r="A36" s="75" t="s">
         <v>26</v>
       </c>
       <c r="B36" s="44" t="s">
@@ -2090,7 +2137,7 @@
       <c r="D36" s="60"/>
     </row>
     <row r="37" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="76" t="s">
+      <c r="A37" s="75" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="44" t="s">
@@ -2102,7 +2149,7 @@
       <c r="D37" s="61"/>
     </row>
     <row r="38" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="76" t="s">
+      <c r="A38" s="75" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="44" t="s">
@@ -2114,7 +2161,7 @@
       <c r="D38" s="61"/>
     </row>
     <row r="39" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="76" t="s">
+      <c r="A39" s="75" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="44" t="s">
@@ -2126,7 +2173,7 @@
       <c r="D39" s="61"/>
     </row>
     <row r="40" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="76" t="s">
         <v>29</v>
       </c>
       <c r="B40" s="45" t="s">
@@ -2135,15 +2182,15 @@
       <c r="C40" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="84"/>
+      <c r="D40" s="83"/>
     </row>
     <row r="41" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="73" t="s">
+      <c r="A41" s="72" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="66"/>
       <c r="C41" s="38"/>
-      <c r="D41" s="69"/>
+      <c r="D41" s="68"/>
     </row>
     <row r="42" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="36" t="s">
@@ -2195,7 +2242,7 @@
       <c r="C47" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="85"/>
+      <c r="D47" s="84"/>
     </row>
     <row r="48" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="48"/>
@@ -2362,8 +2409,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="78"/>
-      <c r="D1" s="78" t="s">
+      <c r="A1" s="77"/>
+      <c r="D1" s="77" t="s">
         <v>95</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -2398,16 +2445,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Check xmlns="67604082-326d-4240-aaee-100283b20839">Rapport Validé</Check>
-    <vctj xmlns="67604082-326d-4240-aaee-100283b20839">8043</vctj>
-    <pv7j xmlns="67604082-326d-4240-aaee-100283b20839">13232</pv7j>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006A18800F7AB66843AE086E8500CCEA21" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d60d5c9f17a480d7e4b53ebba2c4603">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67604082-326d-4240-aaee-100283b20839" xmlns:ns3="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b97804bffc58ba73e5228c2548755f2" ns2:_="" ns3:_="">
     <xsd:import namespace="67604082-326d-4240-aaee-100283b20839"/>
@@ -2583,7 +2620,21 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Check xmlns="67604082-326d-4240-aaee-100283b20839">Rapport Validé</Check>
+    <vctj xmlns="67604082-326d-4240-aaee-100283b20839">8043</vctj>
+    <pv7j xmlns="67604082-326d-4240-aaee-100283b20839">13232</pv7j>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2592,28 +2643,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07ED7936-D779-47E7-BF6C-7C086F04E976}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="67604082-326d-4240-aaee-100283b20839"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{386C40D6-9904-47D7-9FC5-798E8189EC7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2632,18 +2662,35 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07ED7936-D779-47E7-BF6C-7C086F04E976}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="67604082-326d-4240-aaee-100283b20839"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C53B3C-BBC9-48C3-9DA4-3687FEE00EE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F1329F-71F7-4F0E-A822-5837ADF5B51C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C53B3C-BBC9-48C3-9DA4-3687FEE00EE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/lib/PHPExcel/templates/Report Str.xlsx
+++ b/lib/PHPExcel/templates/Report Str.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="9855" windowHeight="4650" tabRatio="576" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="9855" windowHeight="4650" tabRatio="576"/>
   </bookViews>
   <sheets>
     <sheet name="En-tête" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <definedName name="_xlnm.Database">PV!#REF!</definedName>
     <definedName name="_xlnm.Data_Form">PV!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">PV!$A:$C,PV!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Courbes!$A$1:$P$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">PV!$A$1:$D$52</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -385,12 +386,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.00_)"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="#0.0#"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -673,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -853,9 +855,6 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="167" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -900,20 +899,26 @@
     <xf numFmtId="167" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1324,7 +1329,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1403,20 +1408,20 @@
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
       <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1429,20 +1434,20 @@
       <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
       <c r="H9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1510,10 +1515,10 @@
       <c r="E19" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="81" t="s">
+      <c r="K19" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="L19" s="81" t="s">
+      <c r="L19" s="80" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1733,7 +1738,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="82" t="s">
+      <c r="A51" s="81" t="s">
         <v>99</v>
       </c>
       <c r="H51" s="29"/>
@@ -1798,9 +1803,9 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:CY74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D14" sqref="D14:D15"/>
+      <selection pane="topRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1813,9 +1818,9 @@
     <col min="88" max="16384" width="11.42578125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="78" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="79"/>
-      <c r="D1" s="80"/>
+    <row r="1" spans="1:4" s="77" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="78"/>
+      <c r="D1" s="79"/>
     </row>
     <row r="4" spans="1:4" s="34" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="35"/>
@@ -1900,22 +1905,22 @@
     </row>
     <row r="14" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="85" t="s">
         <v>103</v>
       </c>
       <c r="C14" s="40"/>
-      <c r="D14" s="89"/>
+      <c r="D14" s="87"/>
     </row>
     <row r="15" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="88" t="s">
+      <c r="A15" s="70"/>
+      <c r="B15" s="86" t="s">
         <v>103</v>
       </c>
       <c r="C15" s="43"/>
-      <c r="D15" s="90"/>
+      <c r="D15" s="88"/>
     </row>
     <row r="16" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="71" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="66"/>
@@ -1930,7 +1935,7 @@
       <c r="C17" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="58"/>
+      <c r="D17" s="89"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
@@ -1940,7 +1945,7 @@
       <c r="C18" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="58"/>
+      <c r="D18" s="89"/>
     </row>
     <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
@@ -1950,7 +1955,7 @@
       <c r="C19" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="58"/>
+      <c r="D19" s="89"/>
     </row>
     <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="47" t="s">
@@ -1970,7 +1975,7 @@
       <c r="C21" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="58"/>
+      <c r="D21" s="89"/>
     </row>
     <row r="22" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="47" t="s">
@@ -1978,7 +1983,7 @@
       </c>
       <c r="B22" s="37"/>
       <c r="C22" s="41"/>
-      <c r="D22" s="58"/>
+      <c r="D22" s="89"/>
     </row>
     <row r="23" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
@@ -1988,7 +1993,7 @@
       <c r="C23" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="58"/>
+      <c r="D23" s="89"/>
     </row>
     <row r="24" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="47" t="s">
@@ -2001,27 +2006,27 @@
       <c r="D24" s="64"/>
     </row>
     <row r="25" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="73" t="s">
+      <c r="A25" s="72" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="69"/>
+      <c r="D25" s="90"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="74" t="s">
+      <c r="A26" s="73" t="s">
         <v>83</v>
       </c>
       <c r="B26" s="66"/>
       <c r="C26" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="85"/>
+      <c r="D26" s="84"/>
     </row>
     <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="75" t="s">
+      <c r="A27" s="74" t="s">
         <v>69</v>
       </c>
       <c r="B27" s="44" t="s">
@@ -2033,7 +2038,7 @@
       <c r="D27" s="58"/>
     </row>
     <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="75" t="s">
+      <c r="A28" s="74" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="44" t="s">
@@ -2045,7 +2050,7 @@
       <c r="D28" s="58"/>
     </row>
     <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="74" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="44" t="s">
@@ -2057,7 +2062,7 @@
       <c r="D29" s="59"/>
     </row>
     <row r="30" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="75" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="45" t="s">
@@ -2066,10 +2071,10 @@
       <c r="C30" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="70"/>
+      <c r="D30" s="69"/>
     </row>
     <row r="31" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="71" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="66"/>
@@ -2077,7 +2082,7 @@
       <c r="D31" s="68"/>
     </row>
     <row r="32" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="74" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="46" t="s">
@@ -2089,7 +2094,7 @@
       <c r="D32" s="59"/>
     </row>
     <row r="33" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="74" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="44" t="s">
@@ -2101,7 +2106,7 @@
       <c r="D33" s="59"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="75" t="s">
+      <c r="A34" s="74" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="44" t="s">
@@ -2125,7 +2130,7 @@
       <c r="D35" s="59"/>
     </row>
     <row r="36" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="74" t="s">
         <v>26</v>
       </c>
       <c r="B36" s="44" t="s">
@@ -2137,7 +2142,7 @@
       <c r="D36" s="60"/>
     </row>
     <row r="37" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="74" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="44" t="s">
@@ -2149,7 +2154,7 @@
       <c r="D37" s="61"/>
     </row>
     <row r="38" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="75" t="s">
+      <c r="A38" s="74" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="44" t="s">
@@ -2161,7 +2166,7 @@
       <c r="D38" s="61"/>
     </row>
     <row r="39" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="74" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="44" t="s">
@@ -2173,7 +2178,7 @@
       <c r="D39" s="61"/>
     </row>
     <row r="40" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="76" t="s">
+      <c r="A40" s="75" t="s">
         <v>29</v>
       </c>
       <c r="B40" s="45" t="s">
@@ -2182,10 +2187,10 @@
       <c r="C40" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="83"/>
+      <c r="D40" s="82"/>
     </row>
     <row r="41" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="72" t="s">
+      <c r="A41" s="71" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="66"/>
@@ -2242,7 +2247,7 @@
       <c r="C47" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="84"/>
+      <c r="D47" s="83"/>
     </row>
     <row r="48" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="48"/>
@@ -2409,8 +2414,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77"/>
-      <c r="D1" s="77" t="s">
+      <c r="A1" s="76"/>
+      <c r="D1" s="76" t="s">
         <v>95</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -2434,12 +2439,15 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236204" right="0.59055118110236204" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader xml:space="preserve">&amp;L&amp;G&amp;R&amp;"Times New Roman,Normal"&amp;9Page &amp;P/&amp;N&amp;"MS Sans Serif,Normal"&amp;10
 </oddHeader>
     <oddFooter>&amp;C&amp;G</oddFooter>
   </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="54" man="1"/>
+  </colBreaks>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>

--- a/lib/PHPExcel/templates/Report Str.xlsx
+++ b/lib/PHPExcel/templates/Report Str.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -331,55 +331,55 @@
     <t>Contrôle effort</t>
   </si>
   <si>
+    <t>Système M.T.S. hydraulique de capacité 250 kN.</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>Préfixe Éprouvette</t>
+  </si>
+  <si>
+    <t>Nom Éprouvette</t>
+  </si>
+  <si>
+    <t>Eprouvettes usinées par Metcut Research Inc, sous référence : xxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>Str</t>
+  </si>
+  <si>
+    <t>Avant la spécif</t>
+  </si>
+  <si>
+    <t>Après spécif</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> et Instructions client.</t>
+  </si>
+  <si>
+    <t>Joachim GALIPAUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASTM E606-12, </t>
+  </si>
+  <si>
+    <t>Voir cellule $K et $L</t>
+  </si>
+  <si>
+    <t>Essais de fatigue sur xxxxx éprouvettes, matériau fourni par xxxxxxx.</t>
+  </si>
+  <si>
+    <t>Requête client</t>
+  </si>
+  <si>
     <t>Essai en déformation axiale imposée jusqu'à 85000 cycles et passage en contrôle</t>
   </si>
   <si>
-    <t>Système M.T.S. hydraulique de capacité 250 kN.</t>
-  </si>
-  <si>
-    <t>jusqu'à rupture.</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>ET</t>
-  </si>
-  <si>
-    <t>Préfixe Éprouvette</t>
-  </si>
-  <si>
-    <t>Nom Éprouvette</t>
-  </si>
-  <si>
-    <t>Eprouvettes usinées par Metcut Research Inc, sous référence : xxxxxxxxxx</t>
-  </si>
-  <si>
-    <t>Str</t>
-  </si>
-  <si>
-    <t>Avant la spécif</t>
-  </si>
-  <si>
-    <t>Après spécif</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> et Instructions client.</t>
-  </si>
-  <si>
-    <t>Joachim GALIPAUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASTM E606-12, </t>
-  </si>
-  <si>
-    <t>Voir cellule $K et $L</t>
-  </si>
-  <si>
-    <t>Essais de fatigue sur xxxxx éprouvettes, matériau fourni par xxxxxxx.</t>
-  </si>
-  <si>
-    <t>Requête client</t>
+    <t>effort jusqu'à rupture.</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1329,9 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1470,12 +1472,12 @@
         <v>17</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" s="29"/>
     </row>
@@ -1499,10 +1501,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K18" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1513,13 +1515,13 @@
         <v>4</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K19" s="80" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L19" s="80" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1598,12 +1600,12 @@
         <v>4</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E31" s="27" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1697,7 +1699,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
@@ -1739,7 +1741,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="81" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H51" s="29"/>
       <c r="I51" s="30"/>
@@ -1827,7 +1829,7 @@
     </row>
     <row r="5" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="23"/>
@@ -1835,7 +1837,7 @@
     </row>
     <row r="6" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="23"/>
@@ -1906,7 +1908,7 @@
     <row r="14" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="B14" s="85" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="87"/>
@@ -1914,7 +1916,7 @@
     <row r="15" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="70"/>
       <c r="B15" s="86" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="88"/>
@@ -1929,7 +1931,7 @@
     </row>
     <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B17" s="37"/>
       <c r="C17" s="40" t="s">
@@ -1939,7 +1941,7 @@
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="40" t="s">
@@ -1949,7 +1951,7 @@
     </row>
     <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="37"/>
       <c r="C19" s="40" t="s">
@@ -1969,7 +1971,7 @@
     </row>
     <row r="21" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="40" t="s">
@@ -1979,7 +1981,7 @@
     </row>
     <row r="22" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B22" s="37"/>
       <c r="C22" s="41"/>
@@ -1987,7 +1989,7 @@
     </row>
     <row r="23" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B23" s="37"/>
       <c r="C23" s="40" t="s">
@@ -2416,7 +2418,7 @@
     <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="76"/>
       <c r="D1" s="76" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>0</v>

--- a/lib/PHPExcel/templates/Report Str.xlsx
+++ b/lib/PHPExcel/templates/Report Str.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="9855" windowHeight="4650" tabRatio="576"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="9855" windowHeight="4650" tabRatio="576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="En-tête" sheetId="2" r:id="rId1"/>
@@ -796,15 +796,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -843,9 +834,6 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -919,6 +907,18 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1329,7 +1329,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -1410,20 +1410,20 @@
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
       <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1436,20 +1436,20 @@
       <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
       <c r="H9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1517,10 +1517,10 @@
       <c r="E19" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="K19" s="80" t="s">
+      <c r="K19" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="L19" s="80" t="s">
+      <c r="L19" s="76" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1740,7 +1740,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="81" t="s">
+      <c r="A51" s="77" t="s">
         <v>97</v>
       </c>
       <c r="H51" s="29"/>
@@ -1805,9 +1805,9 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:CY74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D25" sqref="D25"/>
+      <selection pane="topRight" activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1820,9 +1820,9 @@
     <col min="88" max="16384" width="11.42578125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="77" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="78"/>
-      <c r="D1" s="79"/>
+    <row r="1" spans="1:4" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="74"/>
+      <c r="D1" s="75"/>
     </row>
     <row r="4" spans="1:4" s="34" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="35"/>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="23"/>
-      <c r="D5" s="54"/>
+      <c r="D5" s="51"/>
     </row>
     <row r="6" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="23"/>
-      <c r="D6" s="54"/>
+      <c r="D6" s="51"/>
     </row>
     <row r="7" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="38"/>
-      <c r="D7" s="55"/>
+      <c r="D7" s="52"/>
     </row>
     <row r="8" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="39"/>
-      <c r="D8" s="55"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="39"/>
-      <c r="D9" s="55"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="39"/>
-      <c r="D10" s="56"/>
+      <c r="D10" s="53"/>
     </row>
     <row r="11" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
@@ -1883,7 +1883,7 @@
       <c r="C11" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="55"/>
+      <c r="D11" s="52"/>
     </row>
     <row r="12" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
@@ -1893,7 +1893,7 @@
       <c r="C12" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="55"/>
+      <c r="D12" s="52"/>
     </row>
     <row r="13" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
@@ -1903,31 +1903,31 @@
       <c r="C13" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="55"/>
+      <c r="D13" s="52"/>
     </row>
     <row r="14" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="81" t="s">
         <v>101</v>
       </c>
       <c r="C14" s="40"/>
-      <c r="D14" s="87"/>
+      <c r="D14" s="83"/>
     </row>
     <row r="15" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
-      <c r="B15" s="86" t="s">
+      <c r="A15" s="66"/>
+      <c r="B15" s="82" t="s">
         <v>101</v>
       </c>
       <c r="C15" s="43"/>
-      <c r="D15" s="88"/>
+      <c r="D15" s="84"/>
     </row>
     <row r="16" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="68"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
     </row>
     <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36" t="s">
@@ -1937,7 +1937,7 @@
       <c r="C17" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="89"/>
+      <c r="D17" s="85"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
@@ -1947,7 +1947,7 @@
       <c r="C18" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="89"/>
+      <c r="D18" s="85"/>
     </row>
     <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="36" t="s">
@@ -1957,7 +1957,7 @@
       <c r="C19" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="89"/>
+      <c r="D19" s="85"/>
     </row>
     <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="47" t="s">
@@ -1967,7 +1967,7 @@
       <c r="C20" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="59"/>
+      <c r="D20" s="56"/>
     </row>
     <row r="21" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="36" t="s">
@@ -1977,7 +1977,7 @@
       <c r="C21" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="89"/>
+      <c r="D21" s="85"/>
     </row>
     <row r="22" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="47" t="s">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="B22" s="37"/>
       <c r="C22" s="41"/>
-      <c r="D22" s="89"/>
+      <c r="D22" s="85"/>
     </row>
     <row r="23" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
@@ -1995,7 +1995,7 @@
       <c r="C23" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="89"/>
+      <c r="D23" s="85"/>
     </row>
     <row r="24" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="47" t="s">
@@ -2005,30 +2005,30 @@
       <c r="C24" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="64"/>
+      <c r="D24" s="61"/>
     </row>
     <row r="25" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="90"/>
+      <c r="D25" s="86"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="67" t="s">
+      <c r="B26" s="62"/>
+      <c r="C26" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="84"/>
+      <c r="D26" s="80"/>
     </row>
     <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="70" t="s">
         <v>69</v>
       </c>
       <c r="B27" s="44" t="s">
@@ -2037,10 +2037,10 @@
       <c r="C27" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="58"/>
+      <c r="D27" s="55"/>
     </row>
     <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="70" t="s">
         <v>69</v>
       </c>
       <c r="B28" s="44" t="s">
@@ -2049,10 +2049,10 @@
       <c r="C28" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="58"/>
+      <c r="D28" s="55"/>
     </row>
     <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="70" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="44" t="s">
@@ -2061,10 +2061,10 @@
       <c r="C29" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="59"/>
+      <c r="D29" s="56"/>
     </row>
     <row r="30" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="71" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="45" t="s">
@@ -2073,18 +2073,18 @@
       <c r="C30" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="69"/>
+      <c r="D30" s="65"/>
     </row>
     <row r="31" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="68"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="64"/>
     </row>
     <row r="32" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="70" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="46" t="s">
@@ -2093,10 +2093,10 @@
       <c r="C32" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="59"/>
+      <c r="D32" s="56"/>
     </row>
     <row r="33" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="70" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="44" t="s">
@@ -2105,10 +2105,10 @@
       <c r="C33" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="59"/>
+      <c r="D33" s="56"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="70" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="44" t="s">
@@ -2117,7 +2117,7 @@
       <c r="C34" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="59"/>
+      <c r="D34" s="56"/>
     </row>
     <row r="35" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="36" t="s">
@@ -2129,10 +2129,10 @@
       <c r="C35" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="59"/>
+      <c r="D35" s="56"/>
     </row>
     <row r="36" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="70" t="s">
         <v>26</v>
       </c>
       <c r="B36" s="44" t="s">
@@ -2141,10 +2141,10 @@
       <c r="C36" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="60"/>
+      <c r="D36" s="57"/>
     </row>
     <row r="37" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="74" t="s">
+      <c r="A37" s="70" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="44" t="s">
@@ -2153,10 +2153,10 @@
       <c r="C37" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="61"/>
+      <c r="D37" s="58"/>
     </row>
     <row r="38" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="70" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="44" t="s">
@@ -2165,10 +2165,10 @@
       <c r="C38" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="61"/>
+      <c r="D38" s="58"/>
     </row>
     <row r="39" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="74" t="s">
+      <c r="A39" s="70" t="s">
         <v>26</v>
       </c>
       <c r="B39" s="44" t="s">
@@ -2177,10 +2177,10 @@
       <c r="C39" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="61"/>
+      <c r="D39" s="58"/>
     </row>
     <row r="40" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="75" t="s">
+      <c r="A40" s="71" t="s">
         <v>29</v>
       </c>
       <c r="B40" s="45" t="s">
@@ -2189,15 +2189,15 @@
       <c r="C40" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="82"/>
+      <c r="D40" s="78"/>
     </row>
     <row r="41" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="66"/>
+      <c r="B41" s="62"/>
       <c r="C41" s="38"/>
-      <c r="D41" s="68"/>
+      <c r="D41" s="64"/>
     </row>
     <row r="42" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="36" t="s">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B42" s="37"/>
       <c r="C42" s="39"/>
-      <c r="D42" s="55"/>
+      <c r="D42" s="52"/>
     </row>
     <row r="43" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="36" t="s">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="B43" s="37"/>
       <c r="C43" s="39"/>
-      <c r="D43" s="55"/>
+      <c r="D43" s="52"/>
     </row>
     <row r="44" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="36" t="s">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B44" s="37"/>
       <c r="C44" s="39"/>
-      <c r="D44" s="55"/>
+      <c r="D44" s="52"/>
     </row>
     <row r="45" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="47" t="s">
@@ -2231,7 +2231,7 @@
       <c r="C45" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="55"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="36" t="s">
@@ -2239,7 +2239,7 @@
       </c>
       <c r="B46" s="37"/>
       <c r="C46" s="39"/>
-      <c r="D46" s="57"/>
+      <c r="D46" s="54"/>
     </row>
     <row r="47" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="47" t="s">
@@ -2249,126 +2249,126 @@
       <c r="C47" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="83"/>
-    </row>
-    <row r="48" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="48"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="65"/>
+      <c r="D47" s="79"/>
+    </row>
+    <row r="48" spans="1:4" s="19" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="88"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="91"/>
     </row>
     <row r="49" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="51"/>
-      <c r="D49" s="52"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="49"/>
     </row>
     <row r="50" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="62" t="s">
+      <c r="A50" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="63"/>
-      <c r="L50" s="63"/>
-      <c r="M50" s="63"/>
-      <c r="N50" s="63"/>
-      <c r="O50" s="63"/>
-      <c r="P50" s="63"/>
-      <c r="Q50" s="63"/>
-      <c r="R50" s="63"/>
-      <c r="S50" s="63"/>
-      <c r="T50" s="63"/>
-      <c r="U50" s="63"/>
-      <c r="V50" s="63"/>
-      <c r="W50" s="63"/>
-      <c r="X50" s="63"/>
-      <c r="Y50" s="63"/>
-      <c r="Z50" s="63"/>
-      <c r="AA50" s="63"/>
-      <c r="AB50" s="63"/>
-      <c r="AC50" s="63"/>
-      <c r="AD50" s="63"/>
-      <c r="AE50" s="63"/>
-      <c r="AF50" s="63"/>
-      <c r="AG50" s="63"/>
-      <c r="AH50" s="63"/>
-      <c r="AI50" s="63"/>
-      <c r="AJ50" s="63"/>
-      <c r="AK50" s="63"/>
-      <c r="AL50" s="63"/>
-      <c r="AM50" s="63"/>
-      <c r="AN50" s="63"/>
-      <c r="AO50" s="63"/>
-      <c r="AP50" s="63"/>
-      <c r="AQ50" s="63"/>
-      <c r="AR50" s="63"/>
-      <c r="AS50" s="63"/>
-      <c r="AT50" s="63"/>
-      <c r="AU50" s="63"/>
-      <c r="AV50" s="63"/>
-      <c r="AW50" s="63"/>
-      <c r="AX50" s="63"/>
-      <c r="AY50" s="63"/>
-      <c r="AZ50" s="63"/>
-      <c r="BA50" s="63"/>
-      <c r="BB50" s="63"/>
-      <c r="BC50" s="63"/>
-      <c r="BD50" s="63"/>
-      <c r="BE50" s="63"/>
-      <c r="BF50" s="63"/>
-      <c r="BG50" s="63"/>
-      <c r="BH50" s="63"/>
-      <c r="BI50" s="63"/>
-      <c r="BJ50" s="63"/>
-      <c r="BK50" s="63"/>
-      <c r="BL50" s="63"/>
-      <c r="BM50" s="63"/>
-      <c r="BN50" s="63"/>
-      <c r="BO50" s="63"/>
-      <c r="BP50" s="63"/>
-      <c r="BQ50" s="63"/>
-      <c r="BR50" s="63"/>
-      <c r="BS50" s="63"/>
-      <c r="BT50" s="63"/>
-      <c r="BU50" s="63"/>
-      <c r="BV50" s="63"/>
-      <c r="BW50" s="63"/>
-      <c r="BX50" s="63"/>
-      <c r="BY50" s="63"/>
-      <c r="BZ50" s="63"/>
-      <c r="CA50" s="63"/>
-      <c r="CB50" s="63"/>
-      <c r="CC50" s="63"/>
-      <c r="CD50" s="63"/>
-      <c r="CE50" s="63"/>
-      <c r="CF50" s="63"/>
-      <c r="CG50" s="63"/>
-      <c r="CH50" s="63"/>
-      <c r="CI50" s="63"/>
-      <c r="CJ50" s="63"/>
-      <c r="CK50" s="63"/>
-      <c r="CL50" s="63"/>
-      <c r="CM50" s="63"/>
-      <c r="CN50" s="63"/>
-      <c r="CO50" s="63"/>
-      <c r="CP50" s="63"/>
-      <c r="CQ50" s="63"/>
-      <c r="CR50" s="63"/>
-      <c r="CS50" s="63"/>
-      <c r="CT50" s="63"/>
-      <c r="CU50" s="63"/>
-      <c r="CV50" s="63"/>
-      <c r="CW50" s="63"/>
-      <c r="CX50" s="63"/>
-      <c r="CY50" s="63"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="60"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="60"/>
+      <c r="P50" s="60"/>
+      <c r="Q50" s="60"/>
+      <c r="R50" s="60"/>
+      <c r="S50" s="60"/>
+      <c r="T50" s="60"/>
+      <c r="U50" s="60"/>
+      <c r="V50" s="60"/>
+      <c r="W50" s="60"/>
+      <c r="X50" s="60"/>
+      <c r="Y50" s="60"/>
+      <c r="Z50" s="60"/>
+      <c r="AA50" s="60"/>
+      <c r="AB50" s="60"/>
+      <c r="AC50" s="60"/>
+      <c r="AD50" s="60"/>
+      <c r="AE50" s="60"/>
+      <c r="AF50" s="60"/>
+      <c r="AG50" s="60"/>
+      <c r="AH50" s="60"/>
+      <c r="AI50" s="60"/>
+      <c r="AJ50" s="60"/>
+      <c r="AK50" s="60"/>
+      <c r="AL50" s="60"/>
+      <c r="AM50" s="60"/>
+      <c r="AN50" s="60"/>
+      <c r="AO50" s="60"/>
+      <c r="AP50" s="60"/>
+      <c r="AQ50" s="60"/>
+      <c r="AR50" s="60"/>
+      <c r="AS50" s="60"/>
+      <c r="AT50" s="60"/>
+      <c r="AU50" s="60"/>
+      <c r="AV50" s="60"/>
+      <c r="AW50" s="60"/>
+      <c r="AX50" s="60"/>
+      <c r="AY50" s="60"/>
+      <c r="AZ50" s="60"/>
+      <c r="BA50" s="60"/>
+      <c r="BB50" s="60"/>
+      <c r="BC50" s="60"/>
+      <c r="BD50" s="60"/>
+      <c r="BE50" s="60"/>
+      <c r="BF50" s="60"/>
+      <c r="BG50" s="60"/>
+      <c r="BH50" s="60"/>
+      <c r="BI50" s="60"/>
+      <c r="BJ50" s="60"/>
+      <c r="BK50" s="60"/>
+      <c r="BL50" s="60"/>
+      <c r="BM50" s="60"/>
+      <c r="BN50" s="60"/>
+      <c r="BO50" s="60"/>
+      <c r="BP50" s="60"/>
+      <c r="BQ50" s="60"/>
+      <c r="BR50" s="60"/>
+      <c r="BS50" s="60"/>
+      <c r="BT50" s="60"/>
+      <c r="BU50" s="60"/>
+      <c r="BV50" s="60"/>
+      <c r="BW50" s="60"/>
+      <c r="BX50" s="60"/>
+      <c r="BY50" s="60"/>
+      <c r="BZ50" s="60"/>
+      <c r="CA50" s="60"/>
+      <c r="CB50" s="60"/>
+      <c r="CC50" s="60"/>
+      <c r="CD50" s="60"/>
+      <c r="CE50" s="60"/>
+      <c r="CF50" s="60"/>
+      <c r="CG50" s="60"/>
+      <c r="CH50" s="60"/>
+      <c r="CI50" s="60"/>
+      <c r="CJ50" s="60"/>
+      <c r="CK50" s="60"/>
+      <c r="CL50" s="60"/>
+      <c r="CM50" s="60"/>
+      <c r="CN50" s="60"/>
+      <c r="CO50" s="60"/>
+      <c r="CP50" s="60"/>
+      <c r="CQ50" s="60"/>
+      <c r="CR50" s="60"/>
+      <c r="CS50" s="60"/>
+      <c r="CT50" s="60"/>
+      <c r="CU50" s="60"/>
+      <c r="CV50" s="60"/>
+      <c r="CW50" s="60"/>
+      <c r="CX50" s="60"/>
+      <c r="CY50" s="60"/>
     </row>
     <row r="51" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="51"/>
+      <c r="C51" s="48"/>
     </row>
     <row r="52" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="32" t="s">
@@ -2377,19 +2377,19 @@
       <c r="C52" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="53"/>
+      <c r="D52" s="50"/>
     </row>
     <row r="53" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D53" s="52"/>
+      <c r="D53" s="49"/>
     </row>
     <row r="54" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D54" s="53"/>
+      <c r="D54" s="50"/>
     </row>
     <row r="55" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D55" s="52"/>
+      <c r="D55" s="49"/>
     </row>
     <row r="56" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D56" s="53"/>
+      <c r="D56" s="50"/>
     </row>
     <row r="74" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -2416,8 +2416,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76"/>
-      <c r="D1" s="76" t="s">
+      <c r="A1" s="72"/>
+      <c r="D1" s="72" t="s">
         <v>93</v>
       </c>
       <c r="F1" s="7" t="s">
@@ -2631,6 +2631,19 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Check xmlns="67604082-326d-4240-aaee-100283b20839">Rapport Validé</Check>
@@ -2638,19 +2651,6 @@
     <pv7j xmlns="67604082-326d-4240-aaee-100283b20839">13232</pv7j>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2673,6 +2673,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F1329F-71F7-4F0E-A822-5837ADF5B51C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C53B3C-BBC9-48C3-9DA4-3687FEE00EE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07ED7936-D779-47E7-BF6C-7C086F04E976}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2687,20 +2703,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C53B3C-BBC9-48C3-9DA4-3687FEE00EE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F1329F-71F7-4F0E-A822-5837ADF5B51C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/lib/PHPExcel/templates/Report Str.xlsx
+++ b/lib/PHPExcel/templates/Report Str.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="104">
   <si>
     <t>No. DE TRAVAIL :</t>
   </si>
@@ -905,20 +905,20 @@
     <xf numFmtId="169" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1410,20 +1410,20 @@
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
       <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
@@ -1436,20 +1436,20 @@
       <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
       <c r="H9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1805,9 +1805,9 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A1:CY74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A48" sqref="A48:XFD48"/>
+      <selection pane="topRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1820,14 +1820,17 @@
     <col min="88" max="16384" width="11.42578125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="73" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="74"/>
       <c r="D1" s="75"/>
-    </row>
-    <row r="4" spans="1:4" s="34" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="34" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="35"/>
     </row>
-    <row r="5" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>90</v>
       </c>
@@ -1835,7 +1838,7 @@
       <c r="C5" s="23"/>
       <c r="D5" s="51"/>
     </row>
-    <row r="6" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
         <v>91</v>
       </c>
@@ -1843,7 +1846,7 @@
       <c r="C6" s="23"/>
       <c r="D6" s="51"/>
     </row>
-    <row r="7" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
         <v>5</v>
       </c>
@@ -1851,7 +1854,7 @@
       <c r="C7" s="38"/>
       <c r="D7" s="52"/>
     </row>
-    <row r="8" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
         <v>65</v>
       </c>
@@ -1859,7 +1862,7 @@
       <c r="C8" s="39"/>
       <c r="D8" s="52"/>
     </row>
-    <row r="9" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
@@ -1867,7 +1870,7 @@
       <c r="C9" s="39"/>
       <c r="D9" s="52"/>
     </row>
-    <row r="10" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
@@ -1875,7 +1878,7 @@
       <c r="C10" s="39"/>
       <c r="D10" s="53"/>
     </row>
-    <row r="11" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
         <v>11</v>
       </c>
@@ -1885,7 +1888,7 @@
       </c>
       <c r="D11" s="52"/>
     </row>
-    <row r="12" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
         <v>13</v>
       </c>
@@ -1895,7 +1898,7 @@
       </c>
       <c r="D12" s="52"/>
     </row>
-    <row r="13" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="36" t="s">
         <v>16</v>
       </c>
@@ -1905,7 +1908,7 @@
       </c>
       <c r="D13" s="52"/>
     </row>
-    <row r="14" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="36"/>
       <c r="B14" s="81" t="s">
         <v>101</v>
@@ -1913,7 +1916,7 @@
       <c r="C14" s="40"/>
       <c r="D14" s="83"/>
     </row>
-    <row r="15" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="66"/>
       <c r="B15" s="82" t="s">
         <v>101</v>
@@ -1921,7 +1924,7 @@
       <c r="C15" s="43"/>
       <c r="D15" s="84"/>
     </row>
-    <row r="16" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="67" t="s">
         <v>18</v>
       </c>
@@ -2252,10 +2255,10 @@
       <c r="D47" s="79"/>
     </row>
     <row r="48" spans="1:4" s="19" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="88"/>
-      <c r="B48" s="89"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="91"/>
+      <c r="A48" s="87"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="90"/>
     </row>
     <row r="49" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="48"/>
@@ -2369,6 +2372,7 @@
     </row>
     <row r="51" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="48"/>
+      <c r="D51" s="60"/>
     </row>
     <row r="52" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="32" t="s">
@@ -2455,6 +2459,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Check xmlns="67604082-326d-4240-aaee-100283b20839">Rapport Validé</Check>
+    <vctj xmlns="67604082-326d-4240-aaee-100283b20839">8043</vctj>
+    <pv7j xmlns="67604082-326d-4240-aaee-100283b20839">13232</pv7j>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006A18800F7AB66843AE086E8500CCEA21" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d60d5c9f17a480d7e4b53ebba2c4603">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67604082-326d-4240-aaee-100283b20839" xmlns:ns3="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b97804bffc58ba73e5228c2548755f2" ns2:_="" ns3:_="">
     <xsd:import namespace="67604082-326d-4240-aaee-100283b20839"/>
@@ -2630,7 +2644,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2639,21 +2653,28 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Check xmlns="67604082-326d-4240-aaee-100283b20839">Rapport Validé</Check>
-    <vctj xmlns="67604082-326d-4240-aaee-100283b20839">8043</vctj>
-    <pv7j xmlns="67604082-326d-4240-aaee-100283b20839">13232</pv7j>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07ED7936-D779-47E7-BF6C-7C086F04E976}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="67604082-326d-4240-aaee-100283b20839"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{386C40D6-9904-47D7-9FC5-798E8189EC7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2672,7 +2693,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F1329F-71F7-4F0E-A822-5837ADF5B51C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2680,27 +2701,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C53B3C-BBC9-48C3-9DA4-3687FEE00EE8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07ED7936-D779-47E7-BF6C-7C086F04E976}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="67604082-326d-4240-aaee-100283b20839"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>